--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1622612.849016484</v>
+        <v>1620360.769305276</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283202</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>4.694518105875008</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>111.9187566128687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>20.84901245549747</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>129.663310755868</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>17.35112070699422</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U7" t="n">
-        <v>245.5943719204607</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>147.2339392611577</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.099573361142522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991615</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D13" t="n">
-        <v>74.96337793487972</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>98.72106119200248</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.54490042791026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>99.97427419833861</v>
+        <v>94.91529601900913</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238327</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>143.6328115792979</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327292</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>10.63412424768209</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>38.21875275158312</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406033</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.4312223122543</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>37.41782514683713</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229343</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,16 +3718,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.4665281367395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1980.946859214235</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4313,34 +4313,34 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539437</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.546699278357</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2367.546699278357</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4422,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>590.8070661251691</v>
+        <v>2392.59927678083</v>
       </c>
       <c r="C4" t="n">
-        <v>590.8070661251691</v>
+        <v>2223.663093852923</v>
       </c>
       <c r="D4" t="n">
-        <v>590.8070661251691</v>
+        <v>2073.546454440588</v>
       </c>
       <c r="E4" t="n">
-        <v>590.8070661251691</v>
+        <v>1925.633360858195</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>3023.029871652618</v>
       </c>
       <c r="X4" t="n">
-        <v>590.8070661251691</v>
+        <v>2795.0403207546</v>
       </c>
       <c r="Y4" t="n">
-        <v>590.8070661251691</v>
+        <v>2574.24774161107</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.124011696102</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.124011696102</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.124011696102</v>
+        <v>1337.882007288089</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898451</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>541.1078499002376</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452341</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997115</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736035</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.723851760224</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1175.936468090393</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1175.936468090393</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1175.936468090393</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1175.936468090393</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>268.2622120761603</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1689.318139675982</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.0249360836216</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>142.0249360836216</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>142.0249360836216</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>142.0249360836216</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836216</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5033,31 +5033,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
         <v>343.0994656851783</v>
@@ -5194,16 +5194,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5604,10 +5604,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1052.829365488562</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>883.8931825606551</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>733.7765431483193</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>585.8634495659262</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>438.9735020680158</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998291</v>
+        <v>271.7774027828958</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1972.67713039731</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1683.259960360349</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1455.270409462332</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1234.477830318802</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>924.6979859831805</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>924.6979859831805</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.3159148556</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199798</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993911</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.13902995695</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1327.13902995695</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1106.34645081342</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1055.185257670615</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>886.249074742708</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D28" t="n">
-        <v>736.1324353303722</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E28" t="n">
-        <v>588.2193417479791</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F28" t="n">
-        <v>441.3293942500687</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G28" t="n">
-        <v>274.1332949649487</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4214638071468</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6418,16 +6418,16 @@
         <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1975.033022579363</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1685.615852542402</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>1457.626301644385</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>1236.833722500854</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6689,13 +6689,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797733</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
         <v>484.8112968429803</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,13 +7187,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133985</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310053</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1398.968683817745</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,7 +7409,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D13" t="n">
-        <v>73.65209508333264</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>68.52575990662535</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>166.0397529241845</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>40.32043864788525</v>
+        <v>45.37941682721475</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>4.982661438914477</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>154.8900140445868</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>43.04708356698241</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610413</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.40075786968467</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>111.1976478713752</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117844</v>
-      </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
         <v>524645.2897985039</v>
@@ -26332,28 +26332,28 @@
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="N2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319411</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184276</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26451,13 +26451,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="P4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995795.3787603957</v>
+        <v>-995795.3787603956</v>
       </c>
       <c r="C6" t="n">
-        <v>332949.3669671972</v>
+        <v>332949.3669671965</v>
       </c>
       <c r="D6" t="n">
         <v>332949.3669671972</v>
       </c>
       <c r="E6" t="n">
-        <v>84503.490055399</v>
+        <v>84468.75212996286</v>
       </c>
       <c r="F6" t="n">
-        <v>409915.9518627535</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="G6" t="n">
-        <v>409915.951862754</v>
+        <v>409881.2139373181</v>
       </c>
       <c r="H6" t="n">
-        <v>409915.9518627541</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="I6" t="n">
-        <v>409915.951862754</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="J6" t="n">
-        <v>192384.7494654765</v>
+        <v>192350.0115400411</v>
       </c>
       <c r="K6" t="n">
-        <v>409915.9518627541</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="L6" t="n">
-        <v>409915.9518627541</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="M6" t="n">
-        <v>324860.9239272422</v>
+        <v>324826.1860018066</v>
       </c>
       <c r="N6" t="n">
-        <v>409915.9518627542</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="O6" t="n">
-        <v>409915.951862754</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="P6" t="n">
-        <v>409915.951862754</v>
+        <v>409881.2139373184</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>360.5783736651325</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>33.50229141006257</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>265.6739858810935</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>252.2670593163938</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>277.2566436803262</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U7" t="n">
-        <v>40.6174662851522</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>259.6421064805538</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.1383652949111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>21.5947289549143</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356967</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>391.9250669264629</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34129,10 +34129,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
